--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pritam PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B9F047-E791-4448-8163-B53AEC8C6ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C6EBE6-870E-4AD2-AD0B-86E73F0A60A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="169">
   <si>
     <t>Mood</t>
   </si>
@@ -152,9 +152,6 @@
     <t>(1135) LUDO: Hardum Humdum FULL VIDEO | Abhishek B, Aditya K, Rajkummar R, Sanya M, Fatima | Arijit, Pritam - YouTube</t>
   </si>
   <si>
-    <t>Sad</t>
-  </si>
-  <si>
     <t>Humari adhuri kahani</t>
   </si>
   <si>
@@ -275,9 +272,6 @@
     <t>(1135) Roke Na Ruke Naina Lyrical Video | Arijit Singh | Varun, Alia | Amaal Mallik"Badrinath Ki Dulhania" - YouTube</t>
   </si>
   <si>
-    <t>Surprise</t>
-  </si>
-  <si>
     <t>Abhi to party shuru huyi hai</t>
   </si>
   <si>
@@ -398,9 +392,6 @@
     <t>(1135) Laila Main Laila | Raees | Shah Rukh Khan | Sunny Leone | Pawni Pandey | Ram Sampath - YouTube</t>
   </si>
   <si>
-    <t>Neutral (For any other mood)</t>
-  </si>
-  <si>
     <t>Apna bana le</t>
   </si>
   <si>
@@ -522,13 +513,28 @@
   </si>
   <si>
     <t>YoutubeLink</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SS3lIQdKP-A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -546,6 +552,13 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -565,15 +578,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -792,8 +808,8 @@
   </sheetPr>
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:A85"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -811,23 +827,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
+      <c r="C3" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -838,7 +854,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -849,7 +865,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -860,7 +876,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -871,7 +887,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -882,7 +898,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -893,7 +909,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
@@ -904,7 +920,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -915,7 +931,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -926,7 +942,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -937,7 +953,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
@@ -948,7 +964,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
@@ -959,7 +975,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>29</v>
@@ -970,7 +986,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>31</v>
@@ -981,7 +997,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>33</v>
@@ -992,7 +1008,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>35</v>
@@ -1003,7 +1019,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>37</v>
@@ -1014,7 +1030,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>39</v>
@@ -1025,7 +1041,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>41</v>
@@ -1036,662 +1052,662 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
